--- a/data/trans_dic/P55$amigo-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$amigo-Provincia-trans_dic.xlsx
@@ -721,7 +721,7 @@
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
-        <v>0.02842076957076048</v>
+        <v>0.02861230452461672</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
-        <v>0.02621660879964252</v>
+        <v>0.02410844302654699</v>
       </c>
     </row>
     <row r="6">
@@ -745,27 +745,27 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1534175143097699</v>
+        <v>0.1487090314050619</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4704203617493591</v>
+        <v>0.4734607191012024</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1909705960375386</v>
+        <v>0.2133750531280417</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.1526514320550948</v>
+        <v>0.1564332552145686</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2991615601661216</v>
+        <v>0.2505889328332296</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1359338712439331</v>
+        <v>0.1376954420492293</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.1238597746678425</v>
+        <v>0.1206532726502704</v>
       </c>
     </row>
     <row r="7">
@@ -839,7 +839,7 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.01027549791039734</v>
+        <v>0.01041168776442122</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.02061510689527682</v>
+        <v>0.02041729319760719</v>
       </c>
     </row>
     <row r="9">
@@ -860,32 +860,32 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2737333086271311</v>
+        <v>0.3203421769973198</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2500449178923504</v>
+        <v>0.2995236012848542</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.3356636544661327</v>
+        <v>0.3386793680522115</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.1206063827304967</v>
+        <v>0.09793167637147923</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.1034684105369638</v>
+        <v>0.1007324606851517</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.14064583305402</v>
+        <v>0.1205338661683058</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09569832008182719</v>
+        <v>0.09878771359700883</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.1114158454586901</v>
+        <v>0.114963752685652</v>
       </c>
     </row>
     <row r="10">
@@ -980,24 +980,24 @@
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.1358615081182136</v>
+        <v>0.1508021051142518</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2106207749869206</v>
+        <v>0.2087530188757141</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.07591868343809398</v>
+        <v>0.08118012440052702</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.100707397626123</v>
+        <v>0.09963887393046052</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1298101723901664</v>
+        <v>0.1377806962528314</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.0466302115481573</v>
+        <v>0.04635632556773354</v>
       </c>
     </row>
     <row r="13">
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03466236740581889</v>
+        <v>0.03466236740581888</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1085,19 +1085,19 @@
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1907455506097034</v>
+        <v>0.1782898722337288</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.05941351949936277</v>
+        <v>0.06906090009793815</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="n">
-        <v>0.07953940154934019</v>
+        <v>0.06776631406155645</v>
       </c>
     </row>
     <row r="16">
@@ -1133,7 +1133,7 @@
         <v>0.09935319359289817</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.01963352315579535</v>
+        <v>0.01963352315579536</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0.08251076303435105</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05314725243844805</v>
+        <v>0.05314725243844804</v>
       </c>
     </row>
     <row r="17">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0.01325229865888606</v>
       </c>
     </row>
     <row r="18">
@@ -1189,23 +1189,23 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.3623387222120417</v>
+        <v>0.3734604124415362</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.3175473787001142</v>
+        <v>0.297518649947428</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1004051762583382</v>
+        <v>0.0980893904126857</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="inlineStr"/>
       <c r="M18" s="5" t="n">
-        <v>0.2592570326710843</v>
+        <v>0.2514766134970954</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1444695140383464</v>
+        <v>0.1379352582356522</v>
       </c>
     </row>
     <row r="19">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.07933500326132817</v>
+        <v>0.07933500326132815</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.06729131943749775</v>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.02071821789348078</v>
+        <v>0.02118045781677298</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01646786094302364</v>
+        <v>0.01664653923820684</v>
       </c>
     </row>
     <row r="21">
@@ -1303,33 +1303,33 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.3160641714227762</v>
+        <v>0.2894416236576826</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.1783430770025172</v>
+        <v>0.1790725279420886</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2144880991142291</v>
+        <v>0.2131779265169536</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.2845152235318604</v>
+        <v>0.2914309774848366</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07347192866325046</v>
+        <v>0.08808486473446769</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1242797392102044</v>
+        <v>0.1477911393031454</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1323107593465257</v>
+        <v>0.1459036792164458</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1475598342425268</v>
+        <v>0.1385247865016989</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09829964865000586</v>
+        <v>0.0920887763537102</v>
       </c>
     </row>
     <row r="22">
@@ -1399,15 +1399,15 @@
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06242854423848646</v>
+        <v>0.06178618005960659</v>
       </c>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="inlineStr"/>
       <c r="M23" s="5" t="n">
-        <v>0.01067456842454676</v>
+        <v>0.01080433581732132</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04215928121351978</v>
+        <v>0.04212082713428969</v>
       </c>
     </row>
     <row r="24">
@@ -1420,24 +1420,24 @@
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.1737881755961047</v>
+        <v>0.1415182727489616</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.1442212357318658</v>
+        <v>0.1214377151565137</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1873093577532165</v>
+        <v>0.1913693194232477</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="inlineStr"/>
       <c r="M24" s="5" t="n">
-        <v>0.1035831003351256</v>
+        <v>0.1097587821507464</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1314030452774688</v>
+        <v>0.1298727410559514</v>
       </c>
     </row>
     <row r="25">
@@ -1473,7 +1473,7 @@
         <v>0.02175243901007641</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.06041252484711056</v>
+        <v>0.06041252484711055</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.03075840861062396</v>
@@ -1485,7 +1485,7 @@
         <v>0.01506078515106504</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.05542247492500578</v>
+        <v>0.05542247492500579</v>
       </c>
     </row>
     <row r="26">
@@ -1513,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01879664337463745</v>
+        <v>0.01858604487455209</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.00913089858166617</v>
+        <v>0.009037515279116665</v>
       </c>
       <c r="L26" s="5" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02105665308566926</v>
+        <v>0.02132591214245431</v>
       </c>
     </row>
     <row r="27">
@@ -1536,36 +1536,36 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1216854089504056</v>
+        <v>0.1120305050377557</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4740199795992915</v>
+        <v>0.4492504158087299</v>
       </c>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="n">
-        <v>0.1539106365088805</v>
+        <v>0.187570081691983</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.126889932317246</v>
+        <v>0.1183946186534</v>
       </c>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="n">
-        <v>0.1135754119678152</v>
+        <v>0.09853668359441967</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1639301124626347</v>
+        <v>0.1567005491256553</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.09016863811067093</v>
+        <v>0.0919226945161733</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1624709130047066</v>
+        <v>0.1647601586184765</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.07655288265549562</v>
+        <v>0.07937576029521208</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1276950306390358</v>
+        <v>0.1310497470077959</v>
       </c>
     </row>
     <row r="28">
@@ -1601,7 +1601,7 @@
         <v>0.02703546515635229</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.05284751924604276</v>
+        <v>0.05284751924604277</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.02082578960281061</v>
@@ -1627,37 +1627,37 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.007287621290187783</v>
+        <v>0.007113892233373203</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02193996986406976</v>
+        <v>0.02322330016561047</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.009226009984120122</v>
+        <v>0.009072933232356428</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.003569326883002786</v>
+        <v>0.00352408567753906</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.009384709233459113</v>
+        <v>0.009245450066440087</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.03671899213613122</v>
+        <v>0.0357756019791508</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.00958602821989999</v>
+        <v>0.009108090189088055</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.007507876268307861</v>
+        <v>0.00715843417598106</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.009160072483910379</v>
+        <v>0.00921212496459263</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.03688981775041989</v>
+        <v>0.03632683435669062</v>
       </c>
     </row>
     <row r="30">
@@ -1668,40 +1668,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05156814449601629</v>
+        <v>0.04458187618541827</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08767028858283824</v>
+        <v>0.09237633340162808</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03425978001441873</v>
+        <v>0.03380395760645717</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.07308459109463471</v>
+        <v>0.07632530372055045</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05010127700810785</v>
+        <v>0.05029425240250963</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.03103304459240482</v>
+        <v>0.0306026047777139</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05613101291122055</v>
+        <v>0.05399922735104487</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.07452073276881319</v>
+        <v>0.07377283023099183</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03891674917973339</v>
+        <v>0.03986961977275038</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04168666720652514</v>
+        <v>0.03946599752150104</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0413196162386994</v>
+        <v>0.04269545784466733</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06639054004749415</v>
+        <v>0.06968325988480063</v>
       </c>
     </row>
     <row r="31">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
-        <v>1647</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="7">
@@ -2013,27 +2013,27 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>4485</v>
+        <v>4347</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4818</v>
+        <v>4849</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5431</v>
+        <v>6068</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>5127</v>
+        <v>5254</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5657</v>
+        <v>4739</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5467</v>
+        <v>5538</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>7781</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="8">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
-        <v>1546</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="11">
@@ -2172,32 +2172,32 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4456</v>
+        <v>5215</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5881</v>
+        <v>7044</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>5528</v>
+        <v>5578</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>5106</v>
+        <v>4146</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>6056</v>
+        <v>5896</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5484</v>
+        <v>4699</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>6302</v>
+        <v>6505</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>8356</v>
+        <v>8622</v>
       </c>
     </row>
     <row r="12">
@@ -2336,24 +2336,24 @@
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>4856</v>
+        <v>5390</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5580</v>
+        <v>5530</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>3387</v>
+        <v>3621</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4649</v>
+        <v>4600</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>5308</v>
+        <v>5634</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>3256</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="16">
@@ -2485,19 +2485,19 @@
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>3387</v>
+        <v>3166</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>2257</v>
+        <v>2623</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="n">
-        <v>4434</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="20">
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23">
@@ -2633,23 +2633,23 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>2970</v>
+        <v>3062</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>7672</v>
+        <v>7188</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1687</v>
+        <v>1648</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="inlineStr"/>
       <c r="M23" s="6" t="n">
-        <v>7542</v>
+        <v>7316</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3612</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="24">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>928</v>
+        <v>938</v>
       </c>
     </row>
     <row r="27">
@@ -2791,33 +2791,33 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5715</v>
+        <v>5234</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>4321</v>
+        <v>4338</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5996</v>
+        <v>5959</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>6655</v>
+        <v>6816</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2362</v>
+        <v>2832</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5707</v>
+        <v>6787</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5208</v>
+        <v>5743</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>5655</v>
+        <v>5309</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>5542</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="28">
@@ -2931,15 +2931,15 @@
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4075</v>
+        <v>4033</v>
       </c>
       <c r="K30" s="6" t="inlineStr"/>
       <c r="L30" s="6" t="inlineStr"/>
       <c r="M30" s="6" t="n">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3957</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="31">
@@ -2952,24 +2952,24 @@
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>4593</v>
+        <v>3740</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>8123</v>
+        <v>6840</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>12225</v>
+        <v>12490</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="inlineStr"/>
       <c r="M31" s="6" t="n">
-        <v>8572</v>
+        <v>9083</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>12334</v>
+        <v>12190</v>
       </c>
     </row>
     <row r="32">
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="L34" s="6" t="n">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1847</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="35">
@@ -3112,36 +3112,36 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3955</v>
+        <v>3641</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>9871</v>
+        <v>9356</v>
       </c>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="n">
-        <v>2990</v>
+        <v>3643</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6035</v>
+        <v>5631</v>
       </c>
       <c r="H35" s="6" t="inlineStr"/>
       <c r="I35" s="6" t="n">
-        <v>6323</v>
+        <v>5486</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>11198</v>
+        <v>10704</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>7219</v>
+        <v>7359</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>11002</v>
+        <v>11157</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>6155</v>
+        <v>6382</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>11203</v>
+        <v>11497</v>
       </c>
     </row>
     <row r="36">
@@ -3247,37 +3247,37 @@
         <v>0</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3711</v>
+        <v>3928</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2509</v>
+        <v>2472</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>13118</v>
+        <v>12781</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3427</v>
+        <v>3256</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>3196</v>
+        <v>3047</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>3562</v>
+        <v>3582</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>19417</v>
+        <v>19121</v>
       </c>
     </row>
     <row r="39">
@@ -3288,40 +3288,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>6527</v>
+        <v>5643</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>12815</v>
+        <v>13502</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4161</v>
+        <v>4106</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>12360</v>
+        <v>12908</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>11569</v>
+        <v>11614</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>8675</v>
+        <v>8554</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>15007</v>
+        <v>14437</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>26622</v>
+        <v>26355</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>13913</v>
+        <v>14253</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>17746</v>
+        <v>16801</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>16066</v>
+        <v>16601</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>34945</v>
+        <v>36679</v>
       </c>
     </row>
     <row r="40">
